--- a/code/output/data_rda.xlsx
+++ b/code/output/data_rda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="108">
   <si>
     <t>ukr_name</t>
   </si>
@@ -130,6 +130,9 @@
     <t>Енергія</t>
   </si>
   <si>
+    <t>Ситість</t>
+  </si>
+  <si>
     <t>Vitamin A</t>
   </si>
   <si>
@@ -224,6 +227,9 @@
   </si>
   <si>
     <t>Energy</t>
+  </si>
+  <si>
+    <t>Fullness</t>
   </si>
   <si>
     <t>VITA</t>
@@ -689,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -720,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>900</v>
@@ -732,7 +738,7 @@
         <v>3000</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -740,10 +746,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>90</v>
@@ -752,7 +758,7 @@
         <v>2000</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -760,10 +766,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -772,7 +778,7 @@
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -780,10 +786,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -792,7 +798,7 @@
         <v>1000</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -800,16 +806,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -817,16 +823,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>1.2</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -834,16 +840,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>1.3</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -851,10 +857,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D9">
         <v>16</v>
@@ -863,7 +869,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -871,10 +877,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D10">
         <v>1.3</v>
@@ -883,7 +889,7 @@
         <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -891,10 +897,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>400</v>
@@ -903,7 +909,7 @@
         <v>1000</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -911,16 +917,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <v>2.4</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -928,16 +934,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -945,10 +951,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D14">
         <v>550</v>
@@ -957,7 +963,7 @@
         <v>3500</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -965,10 +971,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D15">
         <v>1000</v>
@@ -977,7 +983,7 @@
         <v>2500</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -985,10 +991,10 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D16">
         <v>0.9</v>
@@ -997,7 +1003,7 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1005,10 +1011,10 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D17">
         <v>4000</v>
@@ -1017,7 +1023,7 @@
         <v>10000</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1025,10 +1031,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D18">
         <v>150</v>
@@ -1037,7 +1043,7 @@
         <v>1100</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1045,10 +1051,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -1057,7 +1063,7 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1065,10 +1071,10 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D20">
         <v>420</v>
@@ -1077,7 +1083,7 @@
         <v>4200</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1085,10 +1091,10 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D21">
         <v>2.3</v>
@@ -1097,7 +1103,7 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1105,10 +1111,10 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D22">
         <v>700</v>
@@ -1117,7 +1123,7 @@
         <v>4000</v>
       </c>
       <c r="F22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1125,10 +1131,10 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D23">
         <v>55</v>
@@ -1137,7 +1143,7 @@
         <v>400</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1145,10 +1151,10 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D24">
         <v>11</v>
@@ -1157,7 +1163,7 @@
         <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1165,16 +1171,16 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D25">
         <v>4700</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1182,10 +1188,10 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D26">
         <v>1500</v>
@@ -1194,7 +1200,7 @@
         <v>2300</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1202,16 +1208,16 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D27">
         <v>410</v>
       </c>
       <c r="F27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1219,16 +1225,16 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D28">
         <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1236,10 +1242,10 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D29">
         <v>98</v>
@@ -1248,7 +1254,7 @@
         <v>200</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1256,16 +1262,16 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D30">
         <v>1.6</v>
       </c>
       <c r="F30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1273,16 +1279,16 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31">
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1290,10 +1296,10 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32">
         <v>102</v>
@@ -1302,7 +1308,7 @@
         <v>300</v>
       </c>
       <c r="F32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1310,10 +1316,10 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33">
         <v>3000</v>
@@ -1322,7 +1328,15 @@
         <v>7000</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/code/output/data_rda.xlsx
+++ b/code/output/data_rda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
   <si>
     <t>ukr_name</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Мідь</t>
   </si>
   <si>
-    <t>Фтор</t>
-  </si>
-  <si>
     <t>Йод</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>Енергія</t>
   </si>
   <si>
-    <t>Ситість</t>
-  </si>
-  <si>
     <t>Vitamin A</t>
   </si>
   <si>
@@ -178,9 +172,6 @@
     <t>Copper</t>
   </si>
   <si>
-    <t>Fluorine</t>
-  </si>
-  <si>
     <t>Iodine</t>
   </si>
   <si>
@@ -229,9 +220,6 @@
     <t>Energy</t>
   </si>
   <si>
-    <t>Fullness</t>
-  </si>
-  <si>
     <t>VITA</t>
   </si>
   <si>
@@ -275,9 +263,6 @@
   </si>
   <si>
     <t>CU</t>
-  </si>
-  <si>
-    <t>FLD</t>
   </si>
   <si>
     <t>I</t>
@@ -695,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,10 +711,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>900</v>
@@ -738,7 +723,7 @@
         <v>3000</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -746,10 +731,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D3">
         <v>90</v>
@@ -758,7 +743,7 @@
         <v>2000</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -766,10 +751,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -778,7 +763,7 @@
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -786,10 +771,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -798,7 +783,7 @@
         <v>1000</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -806,16 +791,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D6">
         <v>120</v>
       </c>
+      <c r="E6">
+        <v>1000000</v>
+      </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,16 +811,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D7">
         <v>1.2</v>
       </c>
+      <c r="E7">
+        <v>1000000</v>
+      </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -840,16 +831,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D8">
         <v>1.3</v>
       </c>
+      <c r="E8">
+        <v>1000000</v>
+      </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -857,10 +851,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>16</v>
@@ -869,7 +863,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -877,10 +871,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <v>1.3</v>
@@ -889,7 +883,7 @@
         <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -897,10 +891,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <v>400</v>
@@ -909,7 +903,7 @@
         <v>1000</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -917,16 +911,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D12">
         <v>2.4</v>
       </c>
+      <c r="E12">
+        <v>1000000</v>
+      </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -934,16 +931,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
+      <c r="E13">
+        <v>1000000</v>
+      </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -951,10 +951,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D14">
         <v>550</v>
@@ -963,7 +963,7 @@
         <v>3500</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -971,10 +971,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D15">
         <v>1000</v>
@@ -983,7 +983,7 @@
         <v>2500</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -991,10 +991,10 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D16">
         <v>0.9</v>
@@ -1003,7 +1003,7 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1011,19 +1011,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D17">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="E17">
-        <v>10000</v>
+        <v>1100</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1031,19 +1031,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D18">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>1100</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1051,19 +1051,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>420</v>
       </c>
       <c r="E19">
-        <v>45</v>
+        <v>4200</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1071,19 +1071,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D20">
-        <v>420</v>
+        <v>2.3</v>
       </c>
       <c r="E20">
-        <v>4200</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1091,19 +1091,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D21">
-        <v>2.3</v>
+        <v>700</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>4000</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1111,19 +1111,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D22">
-        <v>700</v>
+        <v>55</v>
       </c>
       <c r="E22">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1131,19 +1131,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D23">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1151,19 +1151,19 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>4700</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>1000000000</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1171,16 +1171,19 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D25">
-        <v>4700</v>
+        <v>1500</v>
+      </c>
+      <c r="E25">
+        <v>2300</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1188,19 +1191,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D26">
-        <v>1500</v>
+        <v>410</v>
       </c>
       <c r="E26">
-        <v>2300</v>
+        <v>1000000</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1208,16 +1211,19 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D27">
-        <v>410</v>
+        <v>38</v>
+      </c>
+      <c r="E27">
+        <v>1000000</v>
       </c>
       <c r="F27" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1225,16 +1231,19 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28">
         <v>98</v>
       </c>
-      <c r="D28">
-        <v>38</v>
+      <c r="E28">
+        <v>200</v>
       </c>
       <c r="F28" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1242,19 +1251,19 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D29">
-        <v>98</v>
+        <v>1.6</v>
       </c>
       <c r="E29">
-        <v>200</v>
+        <v>1000000</v>
       </c>
       <c r="F29" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1262,16 +1271,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D30">
-        <v>1.6</v>
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>1000000</v>
       </c>
       <c r="F30" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1279,16 +1291,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31">
+        <v>102</v>
+      </c>
+      <c r="E31">
+        <v>300</v>
+      </c>
+      <c r="F31" t="s">
         <v>101</v>
-      </c>
-      <c r="D31">
-        <v>17</v>
-      </c>
-      <c r="F31" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1296,47 +1311,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32">
+        <v>3000</v>
+      </c>
+      <c r="E32">
+        <v>7000</v>
+      </c>
+      <c r="F32" t="s">
         <v>102</v>
-      </c>
-      <c r="D32">
-        <v>102</v>
-      </c>
-      <c r="E32">
-        <v>300</v>
-      </c>
-      <c r="F32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33">
-        <v>3000</v>
-      </c>
-      <c r="E33">
-        <v>7000</v>
-      </c>
-      <c r="F33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
